--- a/mine/Лист Microsoft Excel (2).xlsx
+++ b/mine/Лист Microsoft Excel (2).xlsx
@@ -10,13 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>Пн</t>
   </si>
@@ -632,15 +633,6 @@
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,15 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,15 +672,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,15 +688,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,15 +703,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,15 +718,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,13 +735,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -807,6 +748,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,53 +874,62 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,66 +940,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,12 +947,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,1841 +1263,1841 @@
   <sheetData>
     <row r="1" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="1" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="55" t="s">
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="57"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="136"/>
     </row>
     <row r="3" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="58" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="U3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="59" t="s">
+      <c r="W3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="60" t="s">
+      <c r="X3" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="73">
+      <c r="B4" s="55">
         <v>27</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="56">
         <v>28</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="56">
         <v>29</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="56">
         <v>30</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="56">
         <v>31</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="56">
         <v>1</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="57">
         <v>2</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="7">
+      <c r="I4" s="14"/>
+      <c r="J4" s="4">
         <v>27</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>28</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>29</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>30</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <v>31</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>2</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="61">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="46">
         <v>27</v>
       </c>
-      <c r="S4" s="62">
+      <c r="S4" s="47">
         <v>28</v>
       </c>
-      <c r="T4" s="62">
+      <c r="T4" s="47">
         <v>29</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="47">
         <v>30</v>
       </c>
-      <c r="V4" s="62">
+      <c r="V4" s="47">
         <v>31</v>
       </c>
-      <c r="W4" s="62">
+      <c r="W4" s="47">
         <v>1</v>
       </c>
-      <c r="X4" s="63">
+      <c r="X4" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="73">
+      <c r="B5" s="55">
         <v>3</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="56">
         <v>4</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="56">
         <v>5</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="56">
         <v>6</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="56">
         <v>7</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="56">
         <v>8</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="57">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="7">
+      <c r="I5" s="14"/>
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>5</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>6</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <v>7</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="5">
         <v>8</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>9</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="61">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="46">
         <v>3</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="47">
         <v>4</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="47">
         <v>5</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="47">
         <v>6</v>
       </c>
-      <c r="V5" s="62">
+      <c r="V5" s="47">
         <v>7</v>
       </c>
-      <c r="W5" s="62">
+      <c r="W5" s="47">
         <v>8</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="48">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="73">
+      <c r="B6" s="55">
         <v>10</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="56">
         <v>11</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="56">
         <v>12</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="56">
         <v>13</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="56">
         <v>14</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="56">
         <v>15</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="57">
         <v>16</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="7">
+      <c r="I6" s="14"/>
+      <c r="J6" s="4">
         <v>10</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <v>11</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="5">
         <v>12</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>13</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="5">
         <v>14</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="5">
         <v>15</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <v>16</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="61">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="46">
         <v>10</v>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="47">
         <v>11</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="47">
         <v>12</v>
       </c>
-      <c r="U6" s="62">
+      <c r="U6" s="47">
         <v>13</v>
       </c>
-      <c r="V6" s="62">
+      <c r="V6" s="47">
         <v>14</v>
       </c>
-      <c r="W6" s="62">
+      <c r="W6" s="47">
         <v>15</v>
       </c>
-      <c r="X6" s="63">
+      <c r="X6" s="48">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="73">
+      <c r="B7" s="55">
         <v>17</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="56">
         <v>18</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="56">
         <v>19</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="56">
         <v>20</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="56">
         <v>21</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="56">
         <v>22</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="57">
         <v>23</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="7">
+      <c r="I7" s="14"/>
+      <c r="J7" s="4">
         <v>17</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>18</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="5">
         <v>19</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <v>20</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="5">
         <v>21</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="5">
         <v>22</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="6">
         <v>23</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="61">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="46">
         <v>17</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="47">
         <v>18</v>
       </c>
-      <c r="T7" s="62">
+      <c r="T7" s="47">
         <v>19</v>
       </c>
-      <c r="U7" s="62">
+      <c r="U7" s="47">
         <v>20</v>
       </c>
-      <c r="V7" s="62">
+      <c r="V7" s="47">
         <v>21</v>
       </c>
-      <c r="W7" s="62">
+      <c r="W7" s="47">
         <v>22</v>
       </c>
-      <c r="X7" s="63">
+      <c r="X7" s="48">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="76">
+      <c r="B8" s="58">
         <v>24</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="59">
         <v>25</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="59">
         <v>26</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="59">
         <v>27</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="59">
         <v>28</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="59">
         <v>29</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="60">
         <v>30</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="10">
+      <c r="I8" s="14"/>
+      <c r="J8" s="7">
         <v>24</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>25</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <v>26</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="8">
         <v>27</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="8">
         <v>28</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="8">
         <v>29</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <v>30</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="64">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="49">
         <v>24</v>
       </c>
-      <c r="S8" s="65">
+      <c r="S8" s="50">
         <v>25</v>
       </c>
-      <c r="T8" s="65">
+      <c r="T8" s="50">
         <v>26</v>
       </c>
-      <c r="U8" s="65">
+      <c r="U8" s="50">
         <v>27</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="50">
         <v>28</v>
       </c>
-      <c r="W8" s="65">
+      <c r="W8" s="50">
         <v>29</v>
       </c>
-      <c r="X8" s="66">
+      <c r="X8" s="51">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
     </row>
     <row r="10" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="30" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="43" t="s">
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="45"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="126"/>
     </row>
     <row r="11" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="46" t="s">
+      <c r="Q11" s="14"/>
+      <c r="R11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="W11" s="47" t="s">
+      <c r="W11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="X11" s="48" t="s">
+      <c r="X11" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="24">
+      <c r="B12" s="18">
         <v>27</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <v>28</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>29</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="19">
         <v>30</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="19">
         <v>31</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>2</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="37">
+      <c r="I12" s="14"/>
+      <c r="J12" s="28">
         <v>27</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="29">
         <v>28</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="29">
         <v>29</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="29">
         <v>30</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="29">
         <v>31</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="29">
         <v>1</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="30">
         <v>2</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="49">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="37">
         <v>27</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12" s="38">
         <v>28</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="38">
         <v>29</v>
       </c>
-      <c r="U12" s="50">
+      <c r="U12" s="38">
         <v>30</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="38">
         <v>31</v>
       </c>
-      <c r="W12" s="50">
+      <c r="W12" s="38">
         <v>1</v>
       </c>
-      <c r="X12" s="51">
+      <c r="X12" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="24">
+      <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <v>4</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="19">
         <v>5</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="19">
         <v>7</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="19">
         <v>8</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="20">
         <v>9</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="37">
+      <c r="I13" s="14"/>
+      <c r="J13" s="28">
         <v>3</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="29">
         <v>4</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="29">
         <v>5</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="29">
         <v>6</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="29">
         <v>7</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="29">
         <v>8</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="30">
         <v>9</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="49">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="37">
         <v>3</v>
       </c>
-      <c r="S13" s="50">
+      <c r="S13" s="38">
         <v>4</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="38">
         <v>5</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="38">
         <v>6</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="38">
         <v>7</v>
       </c>
-      <c r="W13" s="50">
+      <c r="W13" s="38">
         <v>8</v>
       </c>
-      <c r="X13" s="51">
+      <c r="X13" s="39">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="24">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>11</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>12</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <v>13</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="19">
         <v>14</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="19">
         <v>15</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>16</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="37">
+      <c r="I14" s="14"/>
+      <c r="J14" s="28">
         <v>10</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="29">
         <v>11</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="29">
         <v>12</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="29">
         <v>13</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="29">
         <v>14</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="29">
         <v>15</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="30">
         <v>16</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="49">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="37">
         <v>10</v>
       </c>
-      <c r="S14" s="50">
+      <c r="S14" s="38">
         <v>11</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="38">
         <v>12</v>
       </c>
-      <c r="U14" s="50">
+      <c r="U14" s="38">
         <v>13</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="38">
         <v>14</v>
       </c>
-      <c r="W14" s="50">
+      <c r="W14" s="38">
         <v>15</v>
       </c>
-      <c r="X14" s="51">
+      <c r="X14" s="39">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="24">
+      <c r="B15" s="18">
         <v>17</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="19">
         <v>18</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="19">
         <v>19</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="19">
         <v>20</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="19">
         <v>21</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="19">
         <v>22</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="20">
         <v>23</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="37">
+      <c r="I15" s="14"/>
+      <c r="J15" s="28">
         <v>17</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="29">
         <v>18</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="29">
         <v>19</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="29">
         <v>20</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="29">
         <v>21</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="29">
         <v>22</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="30">
         <v>23</v>
       </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="49">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="37">
         <v>17</v>
       </c>
-      <c r="S15" s="50">
+      <c r="S15" s="38">
         <v>18</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="38">
         <v>19</v>
       </c>
-      <c r="U15" s="50">
+      <c r="U15" s="38">
         <v>20</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="38">
         <v>21</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="38">
         <v>22</v>
       </c>
-      <c r="X15" s="51">
+      <c r="X15" s="39">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="27">
+      <c r="B16" s="21">
         <v>24</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>25</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>26</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="22">
         <v>27</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="22">
         <v>28</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="22">
         <v>29</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="23">
         <v>30</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="40">
+      <c r="I16" s="14"/>
+      <c r="J16" s="31">
         <v>24</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="32">
         <v>25</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="32">
         <v>26</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="32">
         <v>27</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="32">
         <v>28</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="32">
         <v>29</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="33">
         <v>30</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="52">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="40">
         <v>24</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="41">
         <v>25</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="41">
         <v>26</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="41">
         <v>27</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="41">
         <v>28</v>
       </c>
-      <c r="W16" s="53">
+      <c r="W16" s="41">
         <v>29</v>
       </c>
-      <c r="X16" s="54">
+      <c r="X16" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="2:49" s="85" customFormat="1" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="84"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+    </row>
+    <row r="18" spans="2:49" s="65" customFormat="1" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="64"/>
     </row>
     <row r="19" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="80"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="80"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="62"/>
     </row>
     <row r="21" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="11"/>
       <c r="AW21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="79"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="79"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
     </row>
     <row r="26" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="17"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="17"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:49" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="17"/>
-      <c r="AF28" s="33"/>
+      <c r="I28" s="14"/>
+      <c r="AF28" s="24"/>
     </row>
     <row r="29" spans="2:49" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="17"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="90"/>
+      <c r="I29" s="14"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="70"/>
     </row>
     <row r="30" spans="2:49" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="17"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="96" t="s">
+      <c r="I30" s="14"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="92"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="116"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="72"/>
     </row>
     <row r="31" spans="2:49" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="17"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="107" t="s">
+      <c r="I31" s="14"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AA31" s="108" t="s">
+      <c r="AA31" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AB31" s="108" t="s">
+      <c r="AB31" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AC31" s="108" t="s">
+      <c r="AC31" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AD31" s="108" t="s">
+      <c r="AD31" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AE31" s="109" t="s">
+      <c r="AE31" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AF31" s="110" t="s">
+      <c r="AF31" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="92"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="72"/>
     </row>
     <row r="32" spans="2:49" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="111">
+      <c r="B32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="88">
         <v>27</v>
       </c>
-      <c r="AA32" s="112">
+      <c r="AA32" s="89">
         <v>28</v>
       </c>
-      <c r="AB32" s="112">
+      <c r="AB32" s="89">
         <v>29</v>
       </c>
-      <c r="AC32" s="112">
+      <c r="AC32" s="89">
         <v>30</v>
       </c>
-      <c r="AD32" s="112">
+      <c r="AD32" s="89">
         <v>31</v>
       </c>
-      <c r="AE32" s="113">
+      <c r="AE32" s="90">
         <v>1</v>
       </c>
-      <c r="AF32" s="114">
+      <c r="AF32" s="91">
         <v>2</v>
       </c>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="92"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="72"/>
     </row>
     <row r="33" spans="2:34" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="99">
+      <c r="B33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="76">
         <v>3</v>
       </c>
-      <c r="AA33" s="100">
+      <c r="AA33" s="77">
         <v>4</v>
       </c>
-      <c r="AB33" s="100">
+      <c r="AB33" s="77">
         <v>5</v>
       </c>
-      <c r="AC33" s="100">
+      <c r="AC33" s="77">
         <v>6</v>
       </c>
-      <c r="AD33" s="100">
+      <c r="AD33" s="77">
         <v>7</v>
       </c>
-      <c r="AE33" s="101">
+      <c r="AE33" s="78">
         <v>8</v>
       </c>
-      <c r="AF33" s="102">
+      <c r="AF33" s="79">
         <v>9</v>
       </c>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="92"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="72"/>
     </row>
     <row r="34" spans="2:34" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="99">
+      <c r="B34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="76">
         <v>10</v>
       </c>
-      <c r="AA34" s="100">
+      <c r="AA34" s="77">
         <v>11</v>
       </c>
-      <c r="AB34" s="100">
+      <c r="AB34" s="77">
         <v>12</v>
       </c>
-      <c r="AC34" s="100">
+      <c r="AC34" s="77">
         <v>13</v>
       </c>
-      <c r="AD34" s="100">
+      <c r="AD34" s="77">
         <v>14</v>
       </c>
-      <c r="AE34" s="101">
+      <c r="AE34" s="78">
         <v>15</v>
       </c>
-      <c r="AF34" s="102">
+      <c r="AF34" s="79">
         <v>16</v>
       </c>
-      <c r="AG34" s="86"/>
-      <c r="AH34" s="92"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="72"/>
     </row>
     <row r="35" spans="2:34" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="99">
+      <c r="B35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="76">
         <v>17</v>
       </c>
-      <c r="AA35" s="100">
+      <c r="AA35" s="77">
         <v>18</v>
       </c>
-      <c r="AB35" s="100">
+      <c r="AB35" s="77">
         <v>19</v>
       </c>
-      <c r="AC35" s="100">
+      <c r="AC35" s="77">
         <v>20</v>
       </c>
-      <c r="AD35" s="100">
+      <c r="AD35" s="77">
         <v>21</v>
       </c>
-      <c r="AE35" s="101">
+      <c r="AE35" s="78">
         <v>22</v>
       </c>
-      <c r="AF35" s="102">
+      <c r="AF35" s="79">
         <v>23</v>
       </c>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="92"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="72"/>
     </row>
     <row r="36" spans="2:34" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="86"/>
-      <c r="Z36" s="103">
+      <c r="B36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="80">
         <v>24</v>
       </c>
-      <c r="AA36" s="104">
+      <c r="AA36" s="81">
         <v>25</v>
       </c>
-      <c r="AB36" s="104">
+      <c r="AB36" s="81">
         <v>26</v>
       </c>
-      <c r="AC36" s="104">
+      <c r="AC36" s="81">
         <v>27</v>
       </c>
-      <c r="AD36" s="104">
+      <c r="AD36" s="81">
         <v>28</v>
       </c>
-      <c r="AE36" s="105">
+      <c r="AE36" s="82">
         <v>29</v>
       </c>
-      <c r="AF36" s="106">
+      <c r="AF36" s="83">
         <v>30</v>
       </c>
-      <c r="AG36" s="86"/>
-      <c r="AH36" s="92"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="72"/>
     </row>
     <row r="37" spans="2:34" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
-      <c r="AH37" s="95"/>
+      <c r="B37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="75"/>
     </row>
     <row r="38" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
+      <c r="B38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
     </row>
     <row r="39" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
     </row>
     <row r="40" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
     </row>
     <row r="43" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
     </row>
     <row r="44" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
     </row>
     <row r="45" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
     </row>
     <row r="46" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
     </row>
     <row r="47" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
     </row>
     <row r="48" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
     </row>
     <row r="49" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
     </row>
     <row r="51" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
     </row>
     <row r="52" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
     </row>
     <row r="53" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="87"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
     </row>
     <row r="54" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="87"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
     </row>
     <row r="55" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
     </row>
     <row r="56" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="87"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
     </row>
     <row r="57" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="87"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
     </row>
     <row r="59" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
     </row>
     <row r="60" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="87"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
     </row>
     <row r="61" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="87"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
     </row>
     <row r="62" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="O62" s="87"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="87"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
     </row>
     <row r="63" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="87"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
     </row>
     <row r="64" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="87"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="87"/>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="87"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
     </row>
     <row r="65" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="87"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3129,240 +3130,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="115" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="118" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="122">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="96">
         <v>27</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="97">
         <v>28</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="97">
         <v>29</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="97">
         <v>30</v>
       </c>
-      <c r="G4" s="123">
+      <c r="G4" s="97">
         <v>31</v>
       </c>
-      <c r="H4" s="124">
+      <c r="H4" s="98">
         <v>1</v>
       </c>
-      <c r="I4" s="125">
+      <c r="I4" s="99">
         <v>2</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="126">
+      <c r="A5" s="61"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="100">
         <v>3</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="101">
         <v>4</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="101">
         <v>5</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="101">
         <v>6</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="101">
         <v>7</v>
       </c>
-      <c r="H5" s="128">
+      <c r="H5" s="102">
         <v>8</v>
       </c>
-      <c r="I5" s="129">
+      <c r="I5" s="103">
         <v>9</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="126">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="100">
         <v>10</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="101">
         <v>11</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="101">
         <v>12</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="101">
         <v>13</v>
       </c>
-      <c r="G6" s="127">
+      <c r="G6" s="101">
         <v>14</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="102">
         <v>15</v>
       </c>
-      <c r="I6" s="129">
+      <c r="I6" s="103">
         <v>16</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="126">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="100">
         <v>17</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="101">
         <v>18</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="101">
         <v>19</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="101">
         <v>20</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="101">
         <v>21</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="102">
         <v>22</v>
       </c>
-      <c r="I7" s="129">
+      <c r="I7" s="103">
         <v>23</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="130">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="104">
         <v>24</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="105">
         <v>25</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="105">
         <v>26</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="105">
         <v>27</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="105">
         <v>28</v>
       </c>
-      <c r="H8" s="132">
+      <c r="H8" s="106">
         <v>29</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="107">
         <v>30</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="48.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3390,165 +3391,166 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="59.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="138" t="s">
+    <row r="1" spans="2:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="59.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
-    </row>
-    <row r="2" spans="2:8" ht="59.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
+    </row>
+    <row r="3" spans="2:8" ht="59.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H3" s="111" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141">
+    <row r="4" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="112">
         <v>27</v>
       </c>
-      <c r="C3" s="142">
+      <c r="C4" s="113">
         <v>28</v>
       </c>
-      <c r="D3" s="142">
+      <c r="D4" s="113">
         <v>29</v>
       </c>
-      <c r="E3" s="142">
+      <c r="E4" s="113">
         <v>30</v>
       </c>
-      <c r="F3" s="142">
+      <c r="F4" s="113">
         <v>31</v>
       </c>
-      <c r="G3" s="124">
+      <c r="G4" s="98">
         <v>1</v>
       </c>
-      <c r="H3" s="125">
+      <c r="H4" s="99">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="126">
+    <row r="5" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="100">
         <v>3</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C5" s="101">
         <v>4</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D5" s="101">
         <v>5</v>
       </c>
-      <c r="E4" s="127">
+      <c r="E5" s="101">
         <v>6</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F5" s="101">
         <v>7</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G5" s="102">
         <v>8</v>
       </c>
-      <c r="H4" s="129">
+      <c r="H5" s="103">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="126">
+    <row r="6" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="100">
         <v>10</v>
       </c>
-      <c r="C5" s="127">
+      <c r="C6" s="101">
         <v>11</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D6" s="101">
         <v>12</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E6" s="101">
         <v>13</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F6" s="101">
         <v>14</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G6" s="102">
         <v>15</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H6" s="103">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126">
+    <row r="7" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="100">
         <v>17</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C7" s="101">
         <v>18</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D7" s="101">
         <v>19</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E7" s="101">
         <v>20</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F7" s="101">
         <v>21</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G7" s="102">
         <v>22</v>
       </c>
-      <c r="H6" s="129">
+      <c r="H7" s="103">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="59.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="130">
+    <row r="8" spans="2:8" ht="59.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="104">
         <v>24</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C8" s="105">
         <v>25</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D8" s="105">
         <v>26</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E8" s="105">
         <v>27</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F8" s="105">
         <v>28</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G8" s="106">
         <v>29</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H8" s="107">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:8" ht="59.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3568,9 +3570,179 @@
     <row r="25" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="142"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="112">
+        <v>27</v>
+      </c>
+      <c r="B3" s="113">
+        <v>28</v>
+      </c>
+      <c r="C3" s="113">
+        <v>29</v>
+      </c>
+      <c r="D3" s="113">
+        <v>30</v>
+      </c>
+      <c r="E3" s="113">
+        <v>31</v>
+      </c>
+      <c r="F3" s="98">
+        <v>1</v>
+      </c>
+      <c r="G3" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="100">
+        <v>3</v>
+      </c>
+      <c r="B4" s="101">
+        <v>4</v>
+      </c>
+      <c r="C4" s="101">
+        <v>5</v>
+      </c>
+      <c r="D4" s="101">
+        <v>6</v>
+      </c>
+      <c r="E4" s="101">
+        <v>7</v>
+      </c>
+      <c r="F4" s="102">
+        <v>8</v>
+      </c>
+      <c r="G4" s="103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="100">
+        <v>10</v>
+      </c>
+      <c r="B5" s="101">
+        <v>11</v>
+      </c>
+      <c r="C5" s="101">
+        <v>12</v>
+      </c>
+      <c r="D5" s="101">
+        <v>13</v>
+      </c>
+      <c r="E5" s="101">
+        <v>14</v>
+      </c>
+      <c r="F5" s="102">
+        <v>15</v>
+      </c>
+      <c r="G5" s="103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="100">
+        <v>17</v>
+      </c>
+      <c r="B6" s="101">
+        <v>18</v>
+      </c>
+      <c r="C6" s="101">
+        <v>19</v>
+      </c>
+      <c r="D6" s="101">
+        <v>20</v>
+      </c>
+      <c r="E6" s="101">
+        <v>21</v>
+      </c>
+      <c r="F6" s="102">
+        <v>22</v>
+      </c>
+      <c r="G6" s="103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="104">
+        <v>24</v>
+      </c>
+      <c r="B7" s="105">
+        <v>25</v>
+      </c>
+      <c r="C7" s="105">
+        <v>26</v>
+      </c>
+      <c r="D7" s="105">
+        <v>27</v>
+      </c>
+      <c r="E7" s="105">
+        <v>28</v>
+      </c>
+      <c r="F7" s="106">
+        <v>29</v>
+      </c>
+      <c r="G7" s="107">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>